--- a/heat-stress-dashboard/heat_risk_database.xlsx
+++ b/heat-stress-dashboard/heat_risk_database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rachn\Python Bin\Semester 6\HeineCAN\heinecan\heat-stress-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B43C90CD-14C3-4838-95A1-B6B35D91385B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFA7B3D-D365-4968-AF37-DAA6A5173858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F4B0683-B846-4F6A-B05D-40558AD0913D}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{9F4B0683-B846-4F6A-B05D-40558AD0913D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Measure 1</t>
   </si>
@@ -48,6 +48,45 @@
   </si>
   <si>
     <t>Heat_Risk_Score</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>xyz2</t>
+  </si>
+  <si>
+    <t>xyz3</t>
+  </si>
+  <si>
+    <t>abc1</t>
+  </si>
+  <si>
+    <t>abc2</t>
+  </si>
+  <si>
+    <t>abc3</t>
+  </si>
+  <si>
+    <t>efg1</t>
+  </si>
+  <si>
+    <t>ghi1</t>
+  </si>
+  <si>
+    <t>ghi2</t>
+  </si>
+  <si>
+    <t>ghi3</t>
+  </si>
+  <si>
+    <t>gbnm1</t>
+  </si>
+  <si>
+    <t>gbnm2</t>
+  </si>
+  <si>
+    <t>gbnm3</t>
   </si>
 </sst>
 </file>
@@ -423,7 +462,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,25 +485,70 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="15:15" x14ac:dyDescent="0.3">

--- a/heat-stress-dashboard/heat_risk_database.xlsx
+++ b/heat-stress-dashboard/heat_risk_database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rachn\Python Bin\Semester 6\HeineCAN\heinecan\heat-stress-dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gur Levy\heinecan-4\heat-stress-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B43C90CD-14C3-4838-95A1-B6B35D91385B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B117A5F8-FDB6-4051-A554-9EBC492775AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F4B0683-B846-4F6A-B05D-40558AD0913D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9F4B0683-B846-4F6A-B05D-40558AD0913D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="5">
   <si>
     <t>Measure 1</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Heat_Risk_Score</t>
+  </si>
+  <si>
+    <t>smth</t>
   </si>
 </sst>
 </file>
@@ -423,12 +426,12 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -442,32 +445,77 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="15:15" x14ac:dyDescent="0.35">
       <c r="O18" s="1"/>
     </row>
   </sheetData>
